--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -188,6 +188,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
+  <c:style val="1"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -199,14 +200,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1200" b="0"/>
+              <a:rPr lang="ru-RU"/>
               <a:t>Результаты классификации для набора данных </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>Students</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1200" b="0"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -431,6 +432,19 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -442,6 +456,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
+  <c:style val="1"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -453,24 +468,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1200" b="0"/>
+              <a:rPr lang="ru-RU"/>
               <a:t>Результаты классификации для набора данных </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0"/>
-              <a:t>Google</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Google Code Jam</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
-              <a:t> Code Jam</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1200" b="0"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -694,6 +699,19 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
@@ -705,6 +723,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
+  <c:style val="1"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -716,17 +735,11 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1200" b="0"/>
+              <a:rPr lang="ru-RU"/>
               <a:t>Результаты классификации для набора данных </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>GitHub</a:t>
             </a:r>
           </a:p>
@@ -952,6 +965,19 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
@@ -964,16 +990,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1000,10 +1026,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1024,16 +1050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
